--- a/ilin_R1_by_R2 (2.5 by 1)100.xlsx
+++ b/ilin_R1_by_R2 (2.5 by 1)100.xlsx
@@ -9,6 +9,7 @@
     <sheet name="ilin" r:id="rId3" sheetId="1"/>
     <sheet name="ilin_pert" r:id="rId4" sheetId="2"/>
     <sheet name="ilin_pert_2" r:id="rId5" sheetId="3"/>
+    <sheet name="lin" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -325,6 +326,137 @@
         <v>-0.1101787699939972</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.05143721633888</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.618308089525974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.590881648781322</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.074204629161148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.200523034853738</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.136324721139967</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.091205479788034</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30.329030779260048</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.18198756309793</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.06827441599283</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.514372163388806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>76.18308089525974</v>
+      </c>
+      <c r="M3" t="n">
+        <v>95.90881648781323</v>
+      </c>
+      <c r="N3" t="n">
+        <v>120.74204629161147</v>
+      </c>
+      <c r="O3" t="n">
+        <v>152.00523034853737</v>
+      </c>
+      <c r="P3" t="n">
+        <v>191.36324721139965</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>240.91205479788033</v>
+      </c>
+      <c r="R3" t="n">
+        <v>303.29030779260046</v>
+      </c>
+      <c r="S3" t="n">
+        <v>381.81987563097925</v>
+      </c>
+      <c r="T3" t="n">
+        <v>480.6827441599283</v>
+      </c>
+      <c r="U3" t="n">
+        <v>605.143721633888</v>
+      </c>
+      <c r="V3" t="n">
+        <v>761.8308089525974</v>
+      </c>
+      <c r="W3" t="n">
+        <v>959.0881648781323</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1207.4204629161147</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1520.0523034853738</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1913.6324721139965</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2409.120547978803</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3032.9030779260047</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3818.1987563097928</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4806.827441599283</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6051.437216338881</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7618.308089525974</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9590.881648781322</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12074.204629161148</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15200.523034853737</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19136.324721139965</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>24091.205479788034</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>30329.030779260047</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>38181.98756309793</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>48068.274415992826</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>60514.372163388805</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>76183.08089525974</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>95908.81648781322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -598,6 +730,137 @@
       </c>
       <c r="AQ2" t="n">
         <v>-0.11017087366360788</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.05143721633888</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.618308089525974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.590881648781322</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.074204629161148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.200523034853738</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.136324721139967</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.091205479788034</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30.329030779260048</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.18198756309793</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.06827441599283</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.514372163388806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>76.18308089525974</v>
+      </c>
+      <c r="M3" t="n">
+        <v>95.90881648781323</v>
+      </c>
+      <c r="N3" t="n">
+        <v>120.74204629161147</v>
+      </c>
+      <c r="O3" t="n">
+        <v>152.00523034853737</v>
+      </c>
+      <c r="P3" t="n">
+        <v>191.36324721139965</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>240.91205479788033</v>
+      </c>
+      <c r="R3" t="n">
+        <v>303.29030779260046</v>
+      </c>
+      <c r="S3" t="n">
+        <v>381.81987563097925</v>
+      </c>
+      <c r="T3" t="n">
+        <v>480.6827441599283</v>
+      </c>
+      <c r="U3" t="n">
+        <v>605.143721633888</v>
+      </c>
+      <c r="V3" t="n">
+        <v>761.8308089525974</v>
+      </c>
+      <c r="W3" t="n">
+        <v>959.0881648781323</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1207.4204629161147</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1520.0523034853738</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1913.6324721139965</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2409.120547978803</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3032.9030779260047</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3818.1987563097928</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4806.827441599283</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6051.437216338881</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7618.308089525974</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9590.881648781322</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12074.204629161148</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15200.523034853737</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19136.324721139965</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>24091.205479788034</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>30329.030779260047</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>38181.98756309793</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>48068.274415992826</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>60514.372163388805</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>76183.08089525974</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>95908.81648781322</v>
       </c>
     </row>
   </sheetData>
@@ -875,6 +1138,281 @@
         <v>-0.11017878060716581</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.05143721633888</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.618308089525974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.590881648781322</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.074204629161148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.200523034853738</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.136324721139967</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.091205479788034</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30.329030779260048</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.18198756309793</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.06827441599283</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.514372163388806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>76.18308089525974</v>
+      </c>
+      <c r="M3" t="n">
+        <v>95.90881648781323</v>
+      </c>
+      <c r="N3" t="n">
+        <v>120.74204629161147</v>
+      </c>
+      <c r="O3" t="n">
+        <v>152.00523034853737</v>
+      </c>
+      <c r="P3" t="n">
+        <v>191.36324721139965</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>240.91205479788033</v>
+      </c>
+      <c r="R3" t="n">
+        <v>303.29030779260046</v>
+      </c>
+      <c r="S3" t="n">
+        <v>381.81987563097925</v>
+      </c>
+      <c r="T3" t="n">
+        <v>480.6827441599283</v>
+      </c>
+      <c r="U3" t="n">
+        <v>605.143721633888</v>
+      </c>
+      <c r="V3" t="n">
+        <v>761.8308089525974</v>
+      </c>
+      <c r="W3" t="n">
+        <v>959.0881648781323</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1207.4204629161147</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1520.0523034853738</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1913.6324721139965</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2409.120547978803</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3032.9030779260047</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3818.1987563097928</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4806.827441599283</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6051.437216338881</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7618.308089525974</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9590.881648781322</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12074.204629161148</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15200.523034853737</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19136.324721139965</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>24091.205479788034</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>30329.030779260047</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>38181.98756309793</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>48068.274415992826</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>60514.372163388805</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>76183.08089525974</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>95908.81648781322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.05143721633888</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.618308089525974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.590881648781322</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.074204629161148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.200523034853738</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.136324721139967</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.091205479788034</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30.329030779260048</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.18198756309793</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.06827441599283</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.514372163388806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>76.18308089525974</v>
+      </c>
+      <c r="M3" t="n">
+        <v>95.90881648781323</v>
+      </c>
+      <c r="N3" t="n">
+        <v>120.74204629161147</v>
+      </c>
+      <c r="O3" t="n">
+        <v>152.00523034853737</v>
+      </c>
+      <c r="P3" t="n">
+        <v>191.36324721139965</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>240.91205479788033</v>
+      </c>
+      <c r="R3" t="n">
+        <v>303.29030779260046</v>
+      </c>
+      <c r="S3" t="n">
+        <v>381.81987563097925</v>
+      </c>
+      <c r="T3" t="n">
+        <v>480.6827441599283</v>
+      </c>
+      <c r="U3" t="n">
+        <v>605.143721633888</v>
+      </c>
+      <c r="V3" t="n">
+        <v>761.8308089525974</v>
+      </c>
+      <c r="W3" t="n">
+        <v>959.0881648781323</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1207.4204629161147</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1520.0523034853738</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1913.6324721139965</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2409.120547978803</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3032.9030779260047</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3818.1987563097928</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4806.827441599283</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6051.437216338881</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7618.308089525974</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9590.881648781322</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12074.204629161148</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15200.523034853737</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19136.324721139965</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>24091.205479788034</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>30329.030779260047</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>38181.98756309793</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>48068.274415992826</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>60514.372163388805</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>76183.08089525974</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>95908.81648781322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
